--- a/DATA_goal/Junction_Flooding_404.xlsx
+++ b/DATA_goal/Junction_Flooding_404.xlsx
@@ -446,34 +446,34 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -759,103 +759,103 @@
         <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.19</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.77</v>
+        <v>37.73</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.28</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.05</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.87</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.43</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.47</v>
+        <v>24.72</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.19</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.92</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.68</v>
+        <v>106.77</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.04</v>
+        <v>20.39</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.07</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.05</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.45</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.28</v>
+        <v>22.76</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="W5" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="X5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_404.xlsx
+++ b/DATA_goal/Junction_Flooding_404.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.92361111111</v>
+        <v>45085.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>15.374</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>10.112</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.717</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>32.732</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>25.126</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>11.943</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>36.363</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>18.615</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>7.558</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>11.183</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>12.932</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>13.607</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>12.031</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>16.608</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.118</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>33.355</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>11.105</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>21.604</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>11.537</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.926</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>18.421</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>8.874000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>10.611</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.312</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>32.661</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>5.894</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>13.883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.93055555555</v>
+        <v>45085.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.49</v>
+        <v>2.402</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.64</v>
+        <v>1.114</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>1.307</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>5.089</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.13</v>
+        <v>3.122</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.38</v>
+        <v>1.767</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.84</v>
+        <v>11.949</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.19</v>
+        <v>2.909</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.97</v>
+        <v>1.058</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.32</v>
+        <v>1.171</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.63</v>
+        <v>1.983</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.94</v>
+        <v>2.086</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.79</v>
+        <v>0.625</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.65</v>
+        <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.04</v>
+        <v>2.541</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.18</v>
+        <v>2.039</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.354</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.609</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>37.73</v>
+        <v>21.385</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.28</v>
+        <v>5.67</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.44</v>
+        <v>1.735</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.24</v>
+        <v>3.405</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.54</v>
+        <v>1.867</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.889</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.46</v>
+        <v>5.321</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.27</v>
+        <v>1.533</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.71</v>
+        <v>1.584</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.64</v>
+        <v>1.889</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.42</v>
+        <v>2.087</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.79</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.43</v>
+        <v>11.719</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.84</v>
+        <v>0.725</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.08</v>
+        <v>2.176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.9375</v>
+        <v>45085.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>18.737</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.05</v>
+        <v>13.622</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.23</v>
+        <v>1.386</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.87</v>
+        <v>40.703</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.43</v>
+        <v>32.891</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.13</v>
+        <v>14.639</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.72</v>
+        <v>52.254</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.36</v>
+        <v>22.687</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.19</v>
+        <v>9.951000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.88</v>
+        <v>14.666</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>16.311</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.19</v>
+        <v>17.273</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.92</v>
+        <v>4.708</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.29</v>
+        <v>14.663</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.67</v>
+        <v>20.746</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.04</v>
+        <v>12.505</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.028</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.878</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>106.77</v>
+        <v>215.837</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20.39</v>
+        <v>40.861</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.72</v>
+        <v>13.534</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.07</v>
+        <v>27.29</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.21</v>
+        <v>14.523</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.16</v>
+        <v>2.351</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.61</v>
+        <v>25.83</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.05</v>
+        <v>11.955</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.68</v>
+        <v>10.661</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.45</v>
+        <v>12.555</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.35</v>
+        <v>17.144</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.76</v>
+        <v>47.355</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.16</v>
+        <v>7.53</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.43</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.94444444445</v>
+        <v>45085.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.76</v>
+        <v>12.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.31</v>
+        <v>8.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.15</v>
+        <v>26.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.58</v>
+        <v>20.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.19</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>38.45</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.13</v>
+        <v>14.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.13</v>
+        <v>6.38</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.6</v>
+        <v>9.32</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.78</v>
+        <v>10.46</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.04</v>
+        <v>11.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.87</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.33</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.25</v>
+        <v>13.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.11</v>
+        <v>8.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.43</v>
+        <v>135.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.18</v>
+        <v>26.36</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.22</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.14</v>
+        <v>17.56</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.4</v>
+        <v>9.33</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.31</v>
+        <v>1.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.53</v>
+        <v>18.33</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.18</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.28</v>
+        <v>6.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.37</v>
+        <v>8.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.14</v>
+        <v>10.99</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.59</v>
+        <v>35.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.95</v>
+        <v>4.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.95137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0</v>
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_404.xlsx
+++ b/DATA_goal/Junction_Flooding_404.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45085.50694444445</v>
+        <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.374</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.112</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.717</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.732</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>25.126</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.943</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>36.363</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.615</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.558</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.183</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.932</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.607</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.86</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.031</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.608</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.57</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.118</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>175.75</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>33.355</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.105</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>21.604</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.537</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.926</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.421</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.808999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.874000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.611</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>13.63</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.312</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>32.661</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.894</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45085.51388888889</v>
+        <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.402</v>
+        <v>3.488</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.114</v>
+        <v>2.641</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.307</v>
+        <v>0.062</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.089</v>
+        <v>8.294</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.122</v>
+        <v>7.133</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.767</v>
+        <v>2.383</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.949</v>
+        <v>6.836</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.909</v>
+        <v>4.193</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.058</v>
+        <v>1.971</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.171</v>
+        <v>3.316</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.983</v>
+        <v>3.632</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.086</v>
+        <v>3.939</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.625</v>
+        <v>1.788</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.88</v>
+        <v>2.654</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.541</v>
+        <v>4.045</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.039</v>
+        <v>2.177</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.354</v>
+        <v>0.1</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.609</v>
+        <v>0.738</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.385</v>
+        <v>37.73</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.67</v>
+        <v>7.279</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.735</v>
+        <v>2.438</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.405</v>
+        <v>5.237</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.867</v>
+        <v>2.542</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.889</v>
+        <v>0.694</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.321</v>
+        <v>3.455</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.533</v>
+        <v>2.271</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.584</v>
+        <v>2.707</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.889</v>
+        <v>2.641</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.087</v>
+        <v>4.418</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0.79</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.719</v>
+        <v>6.435</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.725</v>
+        <v>1.842</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.176</v>
+        <v>3.076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45085.52083333334</v>
+        <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.737</v>
+        <v>9.388</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.622</v>
+        <v>7.048</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.386</v>
+        <v>0.23</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>40.703</v>
+        <v>20.87</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.891</v>
+        <v>17.433</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.639</v>
+        <v>7.135</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>52.254</v>
+        <v>24.722</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.687</v>
+        <v>11.361</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.951000000000001</v>
+        <v>5.193</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.666</v>
+        <v>7.884</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.311</v>
+        <v>8.542999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.273</v>
+        <v>9.191000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.708</v>
+        <v>2.918</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.663</v>
+        <v>7.289</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.746</v>
+        <v>10.667</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.505</v>
+        <v>6.037</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.028</v>
+        <v>0.106</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.878</v>
+        <v>0.67</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>215.837</v>
+        <v>106.769</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>40.861</v>
+        <v>20.39</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.534</v>
+        <v>6.718</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27.29</v>
+        <v>14.066</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.523</v>
+        <v>7.211</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.351</v>
+        <v>1.159</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>25.83</v>
+        <v>12.614</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.955</v>
+        <v>6.049</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.661</v>
+        <v>5.683</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.555</v>
+        <v>6.454</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.144</v>
+        <v>9.35</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.451</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>47.355</v>
+        <v>22.759</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.53</v>
+        <v>4.161</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.92</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45085.52777777778</v>
+        <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.01</v>
+        <v>1.759</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.69</v>
+        <v>1.31</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>4.148</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>9.631</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.602</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.252</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>15.429</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.181</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>4.525</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.369</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>9.593</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>38.45</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>13.31</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>135.75</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>26.36</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>17.56</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>35.21</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.8</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>10.85</v>
+        <v>1.562</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.95137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_404.xlsx
+++ b/DATA_goal/Junction_Flooding_404.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.92361111111</v>
+        <v>45085.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>15.374</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>10.112</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.717</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>32.732</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>25.126</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>11.943</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>36.363</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>18.615</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>7.558</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>11.183</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>12.932</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>13.607</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>12.031</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>16.608</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.118</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>33.355</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>11.105</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>21.604</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>11.537</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.926</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>18.421</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>8.874000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>10.611</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.312</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>32.661</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>5.894</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>13.883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.93055555555</v>
+        <v>45085.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.488</v>
+        <v>2.402</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.641</v>
+        <v>1.114</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.062</v>
+        <v>1.307</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.294</v>
+        <v>5.089</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.133</v>
+        <v>3.122</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.383</v>
+        <v>1.767</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.836</v>
+        <v>11.949</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.193</v>
+        <v>2.909</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.971</v>
+        <v>1.058</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.316</v>
+        <v>1.171</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.632</v>
+        <v>1.983</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.939</v>
+        <v>2.086</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.788</v>
+        <v>0.625</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.654</v>
+        <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.045</v>
+        <v>2.541</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.177</v>
+        <v>2.039</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.354</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.738</v>
+        <v>0.609</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>37.73</v>
+        <v>21.385</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.279</v>
+        <v>5.67</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.438</v>
+        <v>1.735</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.237</v>
+        <v>3.405</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.542</v>
+        <v>1.867</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.694</v>
+        <v>0.889</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.455</v>
+        <v>5.321</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.271</v>
+        <v>1.533</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.707</v>
+        <v>1.584</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.641</v>
+        <v>1.889</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.418</v>
+        <v>2.087</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.79</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.435</v>
+        <v>11.719</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.842</v>
+        <v>0.725</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.076</v>
+        <v>2.176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.9375</v>
+        <v>45085.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.388</v>
+        <v>18.737</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.048</v>
+        <v>13.622</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.23</v>
+        <v>1.386</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.87</v>
+        <v>40.703</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.433</v>
+        <v>32.891</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.135</v>
+        <v>14.639</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.722</v>
+        <v>52.254</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.361</v>
+        <v>22.687</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.193</v>
+        <v>9.951000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.884</v>
+        <v>14.666</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.542999999999999</v>
+        <v>16.311</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.191000000000001</v>
+        <v>17.273</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.918</v>
+        <v>4.708</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.289</v>
+        <v>14.663</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.667</v>
+        <v>20.746</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.037</v>
+        <v>12.505</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.106</v>
+        <v>1.028</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.878</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>106.769</v>
+        <v>215.837</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20.39</v>
+        <v>40.861</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.718</v>
+        <v>13.534</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.066</v>
+        <v>27.29</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.211</v>
+        <v>14.523</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.159</v>
+        <v>2.351</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.614</v>
+        <v>25.83</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.049</v>
+        <v>11.955</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.683</v>
+        <v>10.661</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.454</v>
+        <v>12.555</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.35</v>
+        <v>17.144</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.451</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.759</v>
+        <v>47.355</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.161</v>
+        <v>7.53</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.43</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.94444444445</v>
+        <v>45085.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.759</v>
+        <v>12.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.31</v>
+        <v>8.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.006</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.148</v>
+        <v>26.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.575</v>
+        <v>20.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.195</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.631</v>
+        <v>38.45</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.133</v>
+        <v>14.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.135</v>
+        <v>6.38</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.602</v>
+        <v>9.32</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.779</v>
+        <v>10.46</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.043</v>
+        <v>11.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.867</v>
+        <v>3.02</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.333</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.252</v>
+        <v>13.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.114</v>
+        <v>8.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.029</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.331</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.429</v>
+        <v>135.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.181</v>
+        <v>26.36</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.222</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.143</v>
+        <v>17.56</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.402</v>
+        <v>9.33</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.313</v>
+        <v>1.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.525</v>
+        <v>18.33</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.18</v>
+        <v>7.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.284</v>
+        <v>6.86</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.369</v>
+        <v>8.07</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.143</v>
+        <v>10.99</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.593</v>
+        <v>35.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.95</v>
+        <v>4.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.562</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.95137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0</v>
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>
